--- a/output/Total_time_range_data/黑龙江省/黑河市_学习考察.xlsx
+++ b/output/Total_time_range_data/黑龙江省/黑河市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,510 +436,560 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>66</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>黑河市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>黑河市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>中共黑河市爱辉区委召开七届五十二次常委会会议</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-12-20</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.heihe.gov.cn/hhs/xsdt/202312/c11_272677.shtml</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['12月16日,爱辉区委书记霍德才主持召开区委七届五十二次常委会会议。宋秋田、刘城、曹永辉、吕继宏、王长征、李志国、魏浩亮、朱万然出席会议,赵青海、李茂铎、周景双、宋振江、郭辉列席会议。', '与会人员共同学习了《信息发布工作规定》《关于加强舆情引导处置工作的意见》;会议传达学习了习近平总书记重要讲话重要指示批示精神和中央会议精神,省委、市委会议精神,研究部署了主题教育、巡视整改、法治建设、退役军人事务、外出考察学习、统计、财政、党支部建设等工作。', '就主题教育工作,会议强调,全区各单位要进一步压实工作责任,科学摆布人员力量,坚持精准指导,注重成果转化,强化检视整改,统筹推进主题教育和全年各项中心工作,以高质量发展、可持续振兴的工作成效检验主题教育成果。', '就巡视整改工作,会议强调,要紧密结合主题教育,一体推进问题检视整改,紧扣集中整改期这一关键时间节点,挂图作战、分层分类推进整改工作。要把握好时间节点、倒排清时序进度,逐项逐条对账销号,确保整改彻底、不拖后腿。要切实将靶向治理具体问题与举一反三扩面整改结合起来,把整改落地见效与构建长效机制结合起来,坚持标本兼治,敢于动真碰硬,真正做到解决一个问题、完善一套制度、形成一批经验。', '就法治建设工作,会议强调,要持续抓好法治建设各项工作任务落实,高质量规范行政决策,高标准开展公正执法,相互学习借鉴,取长补短,把法治建设放在各单位各部门工作全局中统筹谋划,推动全区法治建设工作再上新台阶。', '就退役军人事务工作,会议强调,做好退役军人工作是时代所需、现实所需、事业所需,要以黑河市创建全国双拥模范城“五连冠”为契机,持续加强思想教育工作,服务经济社会高质量发展,助力国防和军队现代化建设,营造尊崇尊重社会氛围,以更大的力度、更实的措施推动退役军人和双拥工作,全面提升退役军人事务工作质效。', '就外出考察学习工作,会议强调,要充分学习借鉴袁家村经验,切实把学习成果转化为头脑中的智慧、干事创业的力量,全面总结经验、深挖本土资源、强化党建引领,进一步解放思想,学人之长、创己之新,走出一条具有爱辉特色的“农文旅”融合发展道路。要持续深化对俄交流合作,积极谋划推进对俄教育等领域务实合作,夯实两国人民特别是青少年交流交往和友谊,为中俄传统友谊赋予新的时代内涵。', '就统计工作,会议强调,要进一步增强统计法治观念,从思想根源上树牢防治统计造假、弄虚作假的责任意识,相关部门要建立系统协同机制,提高抗干扰能力,严肃查处各类统计违纪违法行为,坚决杜绝出现弄虚作假、玩文字游戏现象。', '就财政工作,会议强调,要做好资金管理,持续强化服务保障和科技创新,通过提供资金支持、政策支持、科技创新资源的对接和整合,进一步加强我区科技创新成果的转化和推广,促进优质产业资本、项目、技术和人才向科技创新产业聚集,助力爱辉区战略性新兴产业和未来产业高质量发展。', '就党支部建设工作,会议强调,要牢固树立大抓基层的鲜明导向,不断增强基层党组织的战斗力,全面提升党建引领基层治理效能,持续推进党建品牌建设,各级党组织和党员干部要持续强化宗旨意识和责任意识,发挥战斗堡垒、先锋模范作用,不断加强党的基层组织建设,推动基层党组织全面进步、全面过硬。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>66</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>黑河市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>黑河市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>中共北安市委十八届常务委员会召开第次会议</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-11-10</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.heihe.gov.cn/hhs/xsdt/202311/c11_268515.shtml</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['11月9日，北安市委书记李华主持召开中共北安市委十八届常务委员会第45次会议，传达学习习近平总书记重要讲话和重要指示精神及党中央、省市委有关会议精神，听取并研究部署相关工作。', '“一带一路”国际合作高峰论坛、祝贺中华全国工商业联合会成立70周年和在全国妇联、中华全国总工会新一届领导班子成员集体谈话时的重要讲话精神，在深学笃行中凝聚起干事创业的强大动力。要聚焦“党政所向、妇女所需、妇联所能”职能定位，坚定不移走中国特色社会主义妇女发展道路；全面贯彻“信任、团结、服务、引导、教育”的工作方针，做到把握政治方向和服务企业发展“两手抓”，促进非公有制经济健康发展和非公有制经济人士健康成长；大力弘扬“劳模精神、劳动精神、工匠精神”，增强工会组织凝聚力和职工群众获得感，架起党和政府与职工群众的连心桥。要准确把握新时代东北振兴、共建“一带一路”的重大政策机遇，紧盯主要目标指标、重大战略任务、重大工程项目，统筹推进稳增长、促改革、调结构、惠民生、防风险各项工作，以更大决心、更高标准、更强力度，在新时代高质量发展中抢先中抢先机、拔头筹、占高地。', '“四下基层”的科学内涵、基本观点、精神实质、实践要求，要下基层宣传党的方针政策、下基层调查研究、下基层现场办公，下基层信访接待。要让党的大政方针、惠民惠企利好政策落地生根，聚焦发展所需、改革所急、基层所盼、民心所向，扑下身子、沉到一线，到困难多、群众意见集中、工作打不开局面的地方去，体察实情、掌握情况，现场办公、畅通诉求，从基层百姓中获取真知，从人民群众中汲取力量。要认真落实陈文清书记关于“五个始终”“十一个坚持”的信访工作要求，深入践行许勤书记提出的“334”和“5+N”工作法，形成为群众排忧解难的工作合力，强化源头治理，控增量减存量，以更加过硬的作风、更加务实的举措提高信访工作质效。', '会议强调，北安市各有关部门要深入贯彻落实全省经济稳增长调度会议精神，深刻把握经济运行规律，全面客观辩证审视当前经济形势，始终坚持发展这一要务不松劲，全力抓经济、重点抓产业、突出抓企业、关键抓项目。要抢抓政策', '“窗口期”，深挖有利于经济增长的积极因素，集聚“2+1”主导产业，精准招商、深化对接，与象屿、国能、融通、农垦、森工等国企央企开展多领域战略合作；全程跟进项目建设，做好服务保障，扩大有效投资；抓好秋冬季农业生产、畜牧养殖、粮食销售和农产品精深加工；打好惠企政策措施“组合拳”，密切跟踪监测临规临限企业，全力提产能、扩规模、增产量；用好国家支持扩大消费政策，积极策划更多促销活动、促销场景。要牢固树立大历史观、全局观、长远观的理念，围绕目标“明”、底数“清”、对象“全”、内容“准”，“应普尽普、应统尽统”的原则，高标准、高质量做好“五经普”工作，全面客观反映我市经济发展情况。', '“从延安到北安－赓续红色血脉 共铸美好未来”学习交流活动，是一次考察学习、问计取经之旅，开阔视野、解放思想之行。北安市广大党员干部要全面总结经验，切实把学习交流成果转化为高质量发展实效，全面深化基层党建战略合作，共同筑牢坚强有力的战斗堡垒；全面深化干部交流战略合作，共同锻炼实干担当的干部队伍；全面深化经贸领域战略合作，共同打造互利互惠的共赢体系；全面深化文化旅游战略合作，共同构建文旅融合的发展格局；全面深化基层治理战略合作，共同提升基层治理能力现代化和水平；全面深化城市建设战略合作，共同缔造良性互动宜居宜业人民幸福的美好家园。', '2023年基层减负蹲点调研报告》《中共中央关于加强对“一把手”和领导班子监督的意见》进行了学习。', '北安市委领导孟凡晶、张文、杜鑫、张明宇、周芝敏、王曾新、冯德海出席会议，市人大常委会主任孙金梅、市政协主席李兆臣及相关市级领导、部门负责同志列席会议。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>66</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>黑河市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>黑河市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>访革命圣地砺如磐初心奋力构建北安高质量发展可持续振兴新格局</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-11-06</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.heihe.gov.cn/hhs/xsdt/202311/c11_268065.shtml</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['访革命圣地 砺如磐初心 奋力构建北安高质量发展可持续振兴新格局_县市区动态_黑河市人民政府', '10月30日至11月1日，北安市委书记李华率由市领导孟凡晶、周芝敏、王曾新、陈义和相关部门负责同志组成的党政代表团赴延安市宝塔区，开展“从延安到北安——赓续红色血脉 共铸美好未来”主题活动。在考察学习环节，访革命旧址、听党课、重温入党誓词、重走当年干部团行军路线……寻根溯源，从革命精神中汲取前行力量。', '宝塔山松青柏翠，是中国共产党人精神家园的重要标识。耳旁回响的铮铮入党誓词，让在场党员思想又一次得到升华、精神又一次得到洗礼。初心在哪里，使命是什么，从哪里来，到哪里去', '……观看着一幅幅珍贵的历史照片和一件件珍贵的革命文物，聆听着讲解员的解说，仿佛时光倒流，那段艰苦卓绝、充满激情的延安岁月映入眼帘，印在心间。', '活动期间，代表团还深入延农集团中化现代农业技术服务中心和金延安文化旅游产业园区，对延安特色苹果产业和旅游全业态发展模式进行考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>66</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>黑河市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>黑河市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>孙吴县政府主要领导带队外出考察招商</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.heihe.gov.cn/hhs/xsdt/202308/c11_259513.shtml</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['近日,孙吴县委副书记、政府县长刘淼群在参加第九届中国(绥芬河)国际口岸贸易博览会期间,率队考察学习绥芬河市跨境电商孵化基地跨境电商发展先进经验,并与河南神农集团有限公司就大豆和玉米精深加工项目进行了洽谈。', '在跨境电商孵化基地,刘淼群与电商企业运营负责人就“市场采购+跨境电商”出口创新模式、跨境电商政策制定、产业链打造、跨境电商生态完善和云仓、海外仓运营模式等方面进行了深入探讨交流。刘淼群表示,绥芬河市跨境电商孵化基地跨境电商发展理念为孙吴跨境电商发展思路提供了借鉴和启发,将学习借鉴绥芬河跨境电商发展的先进经验和做法,充分依托本地资源优势、区位优势,积极谋划跨境电商产业布局,全面推动孙吴对外贸易高质量发展。', '在与河南神农集团有限公司座谈中,刘淼群就孙吴县大豆、玉米产量、现有加工能力和仓储能力等方面进行了重点介绍,刘淼群表示,希望依托神农集团技术和资金优势,在大豆、玉米深加工、产业链延伸等领域加大互动交流,找准合作契合点,探索发展新模式,建立起广泛长久的合作关系,助推彼此携手共进、高效发展。神农集团负责人表示,近期将赴孙吴县进一步实地考察论证,力争双方就大豆和玉米膨化加工项目早日达成合作意向。', '在参加第九届中国(绥芬河)国际口岸贸易博览会后,刘淼群还带领相关部门负责同志到牡丹江穆棱经济开发区考察调研纺织企业。红豆杉纺织有限公司是一家专门以汉麻为原料,建设规模为1万锭的湿纺企业。刘淼群在企业负责人的陪同下考察了企业生产车间,实地了解了企业湿纺工艺以及汉麻纺纱原料来源和织成率,与企业负责人就当前麻纺行业的市场行情及未来走向进行了深入交流探讨。刘淼群介绍了孙吴县情、区位优势、资源禀赋等,特别指出孙吴县作为汉麻优质原料供应基地,物候条件得天独厚,汉麻纤维更是被省纤维检验局列为全省汉麻纤维地方行业标准,孙吴完全可以为企业发展提供优质原材料,欢迎企业到孙吴考察交流,实现合作共赢。', '红豆杉纺织有限公司是一家专门以汉麻为原料,建设规模为1万锭的湿纺企业。刘淼群在企业负责人的陪同下考察了企业生产车间,实地了解了企业湿纺工艺以及汉麻纺纱原料来源和织成率,与企业负责人就当前麻纺行业的市场行情及未来走向进行了深入交流探讨。刘淼群介绍了孙吴县情、区位优势、资源禀赋等,特别指出孙吴县作为汉麻优质原料供应基地,物候条件得天独厚,汉麻纤维更是被省纤维检验局列为全省汉麻纤维地方行业标准,孙吴完全可以为企业发展提供优质原材料,欢迎企业到孙吴考察交流,实现合作共赢。', '天恒亚麻有限公司是一家以亚麻为主的纺织全产业链企业,刘淼群通过参观企业“储存、脱胶、纺纱、织布”等各个环节流程,重点了解了亚麻湿纺工艺与汉麻湿纺工艺的区别。刘淼群在与企业负责人交谈中表示,孙吴不仅汉麻享誉全国,也适合亚麻种植,希望双方在发展麻类纺织方面共同发掘合作契合点,诚邀企业到孙吴考察、投资兴业。各企业对孙吴的汉麻产业发展给予充分认可,均表示将带着项目需求来孙吴考察,深化交流,共谋合作,实现互利共赢。', '各企业对孙吴的汉麻产业发展给予充分认可,均表示将带着项目需求来孙吴考察,深化交流,共谋合作,实现互利共赢。', '考察活动中,刘淼群还与金泰恒亚麻有限公司负责人座谈交流,了解企业发展情况及招商引资政策、咨询污水处理费用等情况。并深入到新东茂亚麻有限公司项目建设现场,了解企业建设规模和发展规划,还到经济开发区污水处理厂了解污水处理工艺、每日处理量、运营机制和政策支持等相关情况。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>66</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>黑河市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>黑河市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>许勤感悟真理力量紧跟核心矢志奋斗奋力开创现代化强省建设新局面</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.heihe.gov.cn/hhs/c100749/202307/c11_256956.shtml</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['许勤：感悟真理力量紧跟核心矢志奋斗 奋力开创现代化强省建设新局面_时政要闻_黑河市人民政府', '7月22日下午,省党政代表团长三角地区学习考察交流总结座谈会在合肥召开,省委书记、省人大常委会主任许勤主持会议并讲话。他强调,要深入学习贯彻习近平总书记重要讲话重要指示精神,认真落实党的二十大战略部署,系统学习转化先进经验,完整准确全面贯彻新发展理念,融入和服务构建新发展格局,进一步解放思想、开拓创新、真抓实干,扎实推进中国式现代化龙江实践,为强国建设、民族复兴作出更大贡献。', '省委副书记、省长梁惠玲讲话,省政协主席蓝绍敏,省领导余建、王岚、徐向国、张亚中出席会议。', '许勤指出,长三角一体化发展是习近平总书记亲自谋划、亲自部署、亲自推动的重大国家战略,组织党政代表团赴长三角地区学习考察,是推动主题教育走深走实的具体实践,是贯彻落实党的二十大精神的实际行动,是学习借鉴先进经验加快振兴发展的务实举措。通过学习考察,我们深刻感悟了习近平新时代中国特色社会主义思想的真理力量和实践伟力,进一步增强了坚定拥护“两个确立”、坚决做到“两个维护”的政治自觉;我们深切体会了三省一市胸怀“国之大者”、坚决落实国家战略的格局站位,进一步增强了推进全面振兴全方位振兴的使命担当;我们亲眼目睹了三省一市创新发展、开放发展、跨越发展的生动实践,进一步增强了推动高质量发展的信心决心;我们直观感受了三省一市干部群众和企业家干在实处、走在前列的进取精神,进一步增强了时不我待、主动作为的责任感紧迫感;我们密切了与三省一市的沟通交流,深化了全方位务实合作。', '许勤强调,要透过现象看本质、透过成绩看举措、透过结果看路径,全面系统转化学习考察成果,以更高站位、更宽视野、更实作风开创龙江振兴发展和现代化强省建设新局面。要坚决筑牢政治忠诚,持续深入学习习近平总书记重要讲话重要指示精神,从党的创新理论中汲取智慧力量,运用贯穿其中的立场观点方法指导推动振兴发展实践,以更加昂扬姿态紧跟核心、矢志奋斗。要倾力服务国家大局,立足国家所需、龙江所能,坚决扛起维护国家“五大安全”政治责任,主动对接京津冀、长三角、粤港澳大湾区建设等国家重大战略,在推进新时代东北振兴中体现龙江担当、展现龙江作为。要全力推动创新发展,坚持把振兴发展的基点放在创新上,持续推进体制机制创新,深化跨区域科技创新协同,加快构建现代化产业体系,不断开辟发展新赛道、塑造发展新动能。要着力深化开放合作,在国内国际双循环中找准位置、发挥作用,深度融入共建“一带一路”,深化对外经贸合作,做强跨境产业集群,推进开放平台创新发展,着力打造我国向北开放新高地。要践行宗旨为民造福,学习运用“千万工程”和“枫桥经验”“浦江经验”,科学统筹生态建设、乡村振兴、共同富裕、基层治理和城乡一体化发展,提升治理效能,办好民生实事,让发展成果更多惠及龙江人民。要崇尚实干狠抓落实,以深化能力作风建设和“工作落实年”为牵动,推动思想大解放、能力大提升、作风大转变、工作大落实,切实把省委确定的思路、目标、任务、举措转化为实绩实效,确保习近平总书记重要讲话重要指示精神和党的二十大战略部署在龙江落地生根、造福人民。', '梁惠玲指出,通过此次考察学习,进一步坚定了我省沿着习近平总书记指引方向勇毅前行,推动高质量振兴发展的信心和决心。要把深刻学习领会、全面贯彻落实习近平总书记重要讲话重要指示精神转化为推动高质量发展、实现振兴发展新突破的务实举措和具体实践,推动经济实现质的有效提升和量的合理增长。要把牢记领袖嘱托、强化责任担当转化为奋勇争先、敢闯敢干敢突破的内生动力,锚定目标、坚定信心,干在实处、走在前列。要把建设现代化产业体系目标任务转化为真抓实干、推动高质量发展的实际行动,以招商引资为抓手,坚持项目为王、实干为要,加快转方式、调结构,推动产业智能化、高端化、绿色化发展。要把科技创新优势转化为经济发展新动能,建立以企业需求为导向的科研立项机制,加快促进科技成果转化和产业化,推进科技创新与产业发展深度融合。要把深化改革创新转化为优化发展环境的工作质效,加强数字政府建设,更好服务人民群众和市场主体,推进高水平对外开放。要把振兴发展的思路要求转化为以上率下、狠抓落实的示范引领,强化攻坚克难、干事创业的价值追求,提升推动高质量发展的能力水平。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>66</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>黑河市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>黑河市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>深入学习交流建设幸福河湖</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-07-17</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.heihe.gov.cn/hhs/bmdt/202307/c11_3ccadf6641e04000bf0f325f910f659c.shtml</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['为深入贯彻落实习近平生态文明思想和习近平总书记关于建设造福人民的幸福河的重要指示精神', ',根据省总河湖长令(第七号)部署,更好建设我市幸福河湖,结合省水利厅有关领导推荐幸福河湖建设典型县,黑河市河湖长办组织五大连池市、孙吴县河湖长办工作人员,于7月10日-7月13日对铁力市、宝清县幸福河湖建设进行了集体考察学习。', '考察组一行分别来到铁力市呼兰河城区段、王杨渠首和宝清县宝石河,实地查看了河道水利工程建设,水生态水环境治理、人文文化景观建设,智慧水利建设等情况,大家一边实地踏查,一边和当地河湖长办工作人员进行交流,主要就幸福河湖建设理念、工程建设推进、治理方式方法、建设维修养护、资金筹措等方面进行了学习。学习后,又赴五大连池市讷谟尔河、景区石龙河进行实地调研。', '通过考察和交流,考察组成员认为建设幸福河湖是贯彻落实党的二十大精神的具体行动,是满足人民群众对高质量发展、高品质生活需求的内在要求,是全面强化河湖长制、创新河湖管理保护机制的有益探索。黑河市应该切实提高政治站位,以高度政治自觉和责任担当,抓实抓好我们自己的幸福河湖建设。一是要深刻理解幸福河湖的内涵要义,并与具体项目建设有机结合。二是要进一步强化幸福河湖建设组织保障,充分发挥河湖长制制度优势,建立党政主导、部门联动、属地落实、资源整合的工作机制。要配齐配强工作专班,明确责任主体,细化责任分工,完善建设实施方案。要树立共建共享发展理念,强化“一盘棋”思想,围绕幸福河湖建设目标,各部门分工担当协作,形成合力,全力推进。三是要强力推进幸福河湖建设项目落地见效。要坚持问题导向,解决好人民群众关心的水环境、水生态等问题。梳理思想源流和文化脉络,聚焦主线,传承创新,充分满足人民精神文化需求与期望。同时要注重建设实效,加强资金管理,在河湖系统治理、管护能力提升、智慧河湖建设、创新体制机制、助推流域区域发展等方面形成经验,打造全省幸福河湖“黑河样板”。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>66</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>黑河市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>黑河市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>第三十二届哈洽会专题报道黑河以更加开放的姿态走向世界</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-06-26</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.heihe.gov.cn/hhs/c100749/202306/c11_254195.shtml</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['【第三十二届哈洽会专题报道】黑河，以更加开放的姿态走向世界_时政要闻_黑河市人民政府', '六月，繁花似锦，绿荫如海。在这充满生机与活力的美好时节，第三十二届哈尔滨国际经济贸易洽谈会于6月15日至19日在哈尔滨会展体育中心隆重举行。我市作为本届哈洽会唯一主题城市，全面彰显了重要边境口岸城市高质量对外开放的风采。', '在短短的五天时间里，我市代表团充分利用展会平台，积极参与各项推介对接活动，开展多种形式的宣传推介，主动接触国内外客商，认真推介洽谈，取得了丰硕成果，充分展示了黑河深度融入共建“一带一路”，积极参与“中蒙俄经济走廊”建设，加强同欧亚经济联盟对接，打造向北开放新高地的发展定位和使命责任。一个愈加开放、包容、自信、奋进的黑河，赢得赞誉连连。', '步入黑河主题城市展区，标志性网红打卡景观通过电子展板率先映入眼帘；高清LED大屏简洁大气，循环播放着中文、英文、俄文《世界的黑河》城市宣传片。', '黑河主题城市展区以抽象的中俄跨境索道轿厢为设计元素，重点展示“三个基地”“黑河五大投资比较优势”以及黑河自贸片区成果和作用。还融入了黑龙江公路大桥、世界首条跨境索道等中俄合作元素，配合了精美绝伦的俄罗斯歌舞秀，从声、光、电、5G同步直播等四个维度，从听觉、视觉、触觉、味觉四种感官，实现沉浸式观展体验，倾情演绎黑河“充分发挥对俄开放大通道作用、全力打造我国向北开放新高地”的城市风采。', '为充分展示黑河地域特色，在黑土优品展示区，78家农产品加工企业携“黑土优品”大豆、山珍、康养、浆果、杂粮、矿泉6大系列200余款农产品参展，水飞蓟酱油、大豆意大利面、黑河大豆冰淇淋粉和万物生大豆肽等一系列新产品首次亮相哈洽会。这些商品不但为展位增光添彩，还吸引了大量展商前来洽谈采购和合作。孙吴汉麻、北安乌鱼绣、逊克北红玛瑙、北安木雕……本届洽谈会，我市创新推出在黑河主题城市展区开展各县(市、区)“主题日”活动。展示、借鉴、交流，带着满满的诚意、丰富的创意和十足的新意，全面对外展示黑河新形象，细说黑河故事，得到了国内外嘉宾的广泛关注，展会期间，各类媒体、参观者、客商接踵而至、络绎不绝。据粗略统计，黑河主题城市展区每日接待4000余人次，累计观展、洽谈、对接、咨询、抽奖等活动2万余人次。展会期间，五大连池矿泉水还被组委会确定为本届哈洽会开幕式和招待晚宴的接待专用水。', '作为我国向北开放的窗口，我市正立足区位优势，以开放的胸怀向世界“招手”，“朋友圈”不断扩大，贸易量不断增长，焕发出新的活力与生机。本届哈洽会，黑河，再次吸引了产业界的目光。', '展会期间，市领导充分利用中外客商云集的有利契机，参加活动，对接“交友”，寻找与黑河合作线索，还带头在黑河展位接待嘉宾客商，解答客商咨询，开展对接洽谈。代表团其他成员积极参加各类商务活动，不放过一处合作商机。各县(市、区)也纷纷结合实际举办了投资促进和项目对接活动，积极展示黑河的新形象、新亮点。', '在黑河与布市联合举办的“开放共享新机遇合作共建新高地”中俄跨境产业合作招商推介会上，俄罗斯区域集团、CAP控股、阿尔皮有限责任公司、阿穆尔农业综合体、友谊有限责任公司；飞鹤集团、建龙集团、紫金矿业、象屿集团、中国融通集团、中国诚通集团、北大荒集团、黑龙江交投集团、轩辕集团、润发集团等90余家中俄两国企业云集。在与会嘉宾的共同见证下，爱辉文旅综合体开发项目和硅藻页岩开采、开发及加工等18个合作项目成功签约，总签约额60.5亿元。同时黑河市还与同程旅游股份公司签订了全域旅游项目，与中国中小企业协会中外企业家分会签订了战略合作协议。这些项目的签约必将为我市经济发展提供强有力的支撑。', '各县(市、区)结合各自情况做好“主题日”宣传活动，积极开展对接推介活动。黑河自贸片区利用各种专题推介活动，完成产业类、经贸类签约额35.6亿元；北安市与上海基森公司、湖北安琪酵母公司、瑞雪糖业公司等一批龙头企业就商贸物流、农产品加工、新能源等项目进行洽谈对接；嫩江市与郑州良润科技有限公司签订总投资5亿元的3万吨大豆醇洗蛋白项目，与河南风能同创新能源有限公司签订总投资1亿元的混凝土塔筒制造项目，与中国农业机械化科学研究院集团有限公司签订战略合作框架协议……展会期间，我市总签约107.5亿元，其中产业投资项目10个，投资额51.2亿元；外资投资项目1个，投资额2.5亿元；对外贸易项目17个，合同金额52.8亿元；采购贸易项目1个，采购金额1亿元。', '回顾筹备及参会的过程，正是有了市委市政府的统筹领导和各地各有关部门的团结协作，高效率、高质量地完成各自承担的工作任务，才为圆满完成参会工作提供了坚强保障，凸显了“全市一盘棋”的责任与担当。', '市委市政府高度重视哈洽会参会工作，组织召开动员大会，对参会参展工作进行部署安排，以高站位谋划黑河主题城市展。筹备期间，市领导多次召开会议，听取工作汇报，参与展位方案设计，推敲各个细节，对参会参展提出明确要求，进行全面部署，并提前到展馆实地检查黑河各展位布展情况。', '全市上下保持高度的紧迫感和责任感，各部门自加压力，倾注了大量精力筹备参会参展，充分体现了我市参会人员良好的政治素质和业务能力。市商务局作为我市参会牵头部门，高度重视参会工作，对各项活动进行精心策划、周密部署。及时督办和协调各部门工作，做好上传下达，沟通联络工作，圆满完成各项活动安排，积极组织好企业参加各项商务活动；市招商办精心组织了“开放共享新机遇合作共建新高地”中俄跨境产业合作招商推介会，认真做好招商宣传和项目签约工作；市贸促会与省会展局主动对接，经过不懈努力，在A馆争取到位置优、面积大的展位，做好黑河代表团各项服务工作，并积极承担黑河形象展的展位设计、布展和展示重任，通过丰富多彩的展陈内容、现代化的展陈手段及富有中俄风韵的歌曲节目，树立了中俄双子城的良好形象，得到参会领导和嘉宾的高度评价；市委宣传部举办新闻发布会和媒体吹风会，邀请多家媒体开展新闻报道和对外宣传工作；市工商联、市政府驻哈联络中心充分发挥桥梁纽带和扩大交流联络作用，通过召开座谈会、走访商会等形式诚邀新西兰黑龙江总商会、驻黑龙江省和驻哈尔滨市30余家商会参加哈洽会，并提供优质服务和保障；黑河广播电视台为现场直播提供了有力保障；市外事办、市政府驻阿穆尔州联络中心积极与俄布市沟通联络，精心安排圆满完成各项外事相关工作；市接待办积极为工作人员提供服务；其他部门分别按照省直对口部门要求，积极开展对接，做好参会参展各项工作。市商务局、市贸促会、市委宣传部、市文旅局还安排精通业务、了解情况的工作人员，在黑河展位接待客商，现场讲解。', '第三十二届哈尔滨国际经济贸易洽谈会虽已落幕，但黑河的精彩永不止步。回顾这五天，我市在产品促销、形象展示、项目推介、招商引资、考察学习等各项活动中都有着不俗的表现。这一项项活动犹如一粒粒种子，为我市经济社会高质量发展种下了满满的希望。展望未来，我市必将以更加开放的姿态、更加包容的胸怀拥抱世界，在新时代新征程上，推动更高水平对外开放和更高质量发展，向世人展示一个更加开放、更加辉煌灿烂的新黑河。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>66</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>黑河市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>黑河市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>黑河市人民政府办公室关于进一步规范市政府有关会议请假制度的通知</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2016-02-26</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.heihe.gov.cn/hhs/c103096/201602/c11_220533.shtml</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['黑河市人民政府办公室关于进一步规范市政府有关会议请假制度的通知_黑市政办发_黑河市人民政府', '各县（市、区）人民政府、五大连池管委会，中、省、市直各单位： 为严肃市政府有关会议纪律，确保会议作出的决策部署及时传达贯彻落实，现对市政府有关会议请假制度作进一步规范。 一、市政府全体会议、常务会议和市政府主要领导出席的工作会议、市政府主要领导主持召开的市长办公会议（现场办公会议） 属下列情况之一的，参会人员可以书面形式向市政府秘书长提出请假申请，经市政府秘书长请示同意后，方可委派本单位其他负责人参加；不属下列情况的，原则上不得请假。 （一）参加党中央、国务院，省委、省政府及其部门会议或公务活动的； （二）参加市委主要领导主持、召集、出席的会议或公务活动的； （三）参加或列席市人大常委会法定会议、市政协重大公务活动的； （四）经批准在境外公务考察学习或参加经贸活动时限内的； （五）经批准参加中央党校、国家行政学院，省委党校、省行政学院或有关专门培训学习的； （六）经批准在市内参加重要内外宾接待任务的； （七）本人或直系亲属因病急需治疗的； （八）处置突发性应急事件的； （九）其他特别情况。 二、市政府副市长出席的工作会议、市政府副市长主持召开的市长办公会议（现场办公会议）和市政府协调会议 属下列情况之一的，参会人员可以书面形式向市政府分管领导或市长办公会议、协调会议主持人提出请假申请，经同意后，方可委派本单位其他负责人参加；不属下列情况的，原则上不得请假。 （一）参加党中央、国务院，省委、省政府及其部门会议或公务活动的； （二）参加市委、市政府主要领导或相关领导主持、召集、出席的会议或公务活动的； （三）参加或列席市人大常委会法定会议、市政协重大公务活动的； （四）经批准在境外公务考察学习或参加经贸活动时限内的； （五）经批准参加中央党校、国家行政学院，省委党校、省行政学院或有关专门培训学习的； （六）经批准在市内参加重要内外宾接待任务的； （七）本人或直系亲属因病急需治疗的； （八）处置突发性应急事件的； （九）其他特别情况。 各地、各部门必须严格遵守市政府有关会议纪律，参会人员要严格按照会议通知要求，准时参加会议。因故不能参加的，要按程序报批。 参加市政府组织的调研、考察、招商、大型活动等参照本通知执行。', '一、市政府全体会议、常务会议和市政府主要领导出席的工作会议、市政府主要领导主持召开的市长办公会议（现场办公会议）', '二、市政府副市长出席的工作会议、市政府副市长主持召开的市长办公会议（现场办公会议）和市政府协调会议']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>66</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>黑河市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>黑河市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>内蒙古扎兰屯市考察组来五大连池市考察国家现代农业产业园创建工作</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-08-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.heihe.gov.cn/hhs/xsdt/202208/c11_214073.shtml</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['内蒙古扎兰屯市考察组来五大连池市考察国家现代农业产业园创建工作_县市区动态_黑河市人民政府', '近日，内蒙古自治区扎兰屯市委书记白志军带领考察组来五大连池市，就国家现代农业产业园创建工作进行考察学习。五大连池市人大常委会副主任、项目专班负责人李凤生陪同考察。', '考察组先后来到五大连池市城南高速口种子展示示范园区、圣丰种业种子展示园区等处，实地察看圣丰育种及检测加工能力提升项目建设情况、矿泉工业园区大豆种子综合服务中心建设情况，深入了解企业目前的发展状况。', '座谈会上，李凤生对考察组的到来表示欢迎，并就五大连池市国家现代农业产业园创建项目推进情况以及做法进行了介绍。', '考察组对五大连池市国家现代农业产业园建设给予了高度评价。白志军认为，建设国家现代农业产业园是实施乡村振兴战略的重要抓手，也是实现农业现代化和农业高质量发展的重要路径。五大连池市在建设国家现代产业园工作上很多经验和做法非常具有学习和借鉴意义。他表示，回去后将把这些好的经验和做法与扎兰屯市的实际情况结合起来，把扎兰屯市的国家现代农业产业园建设工作做好。并希望以这次考察为契机，双方进一步推动多层次合作交流，发挥各自优势，创新方式方法，深入推进国家现代农业产业园共建，不断提升农业产业化水平。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>66</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>黑河市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>黑河市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>北安市考察学习取真经服务飞鹤不停步</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-04-17</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.heihe.gov.cn/hhs/xsdt/202304/c11_246346.shtml</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['在学习中拓展视野，在借鉴中提升能力。为进一步解放思想、振兴发展，创新全要素保障、全流程服务发展理念，全力保障', '“走出去、走下去、走上去”方式，赴兄弟县市考察交流，深入北安重点企业调研走访活动，聚焦13个产业链延链拓链，力争形成一批推动高质量发展的理论成果和实践成果。', '“党政企”代表考察团第一站走进齐齐哈尔市克东县、依安县，就飞鹤乳业及配套企业落地、生产经营及延链补链开展考察交流活动，学习兄弟市县在创新理念招引项目、全要素服务保障企业等方面的做法经验。', '在克东县飞鹤乳业有限公司、勇进原生态牧业有限公司、北纬四十七绿色有机食品有限公司和黑龙江瑞源生物科技有限公司，考察团成员通过听介绍、进企业、看项目，切身感受克东县精准施策、多点发力，创新全流程保障，全要素服务飞鹤', '20年的新理念、大气魄、高标准、快速度、活办法、硬作风、好机制。在依安县黑龙江国牛牧业有限公司、东方瑞雪糖业、北纬四十七绿色有机食品产业园、年产20万吨植脂末项目建设现场和依安县政务中心企业专厅，大家边走边看边学边思考，看产业、找亮点、谈感受、议发展，全方位、多角度了解依安县近年来创新理念引企助企落地、大力推行“鲜食玉米种植+植脂未加工+糖业加工+肉牛养殖”全产业链发展模式取得的显著成效和特色经验。通过对标先进、找出不足，以“行万里路、思他人强”的态度向优秀的“先行者们”取经问道。', '47黄金纬度和乌裕尔河畔，因飞鹤乳业缔结了深厚友谊。此次考察之行，我们虚心而来找出了差距、方向，满载而归取到了良策、真经，鼓足了信心、干劲。希望北安、克东、依安进一步建立长效机制，充分发挥各自优势，在高质量发展道路上相互赋能，不断巩固交流合作成果，以中国式现代化引领经济社会实现更高质量发展。', '“等不起”的紧迫感 、“慢不得”的危机感 、“坐不住”的责任感，对照先进找差距、自我加压促发展，以更有力的举措全面落实中央和省、市决策部署，不断汇聚起干事创业的磅礴力量。要提高转化力，第一时间就地消化、持续深化、加快转化考察成果，学习两县高质量发展之长、走好北安现代化先行之路，以更高政治站位、更强使命自觉、更宽战略视野、更好精神状态推动北安各项工作干在实处、走在前列。要提高谋划力，拿出大气魄、大格局、大手笔，坚定不移围绕“2+1”主导产业谋划招引建设一批高质量、高效益的大项目、好项目，加快构建现代化产业体系，确保在新一轮发展中赢得更大优势、占得更大先机。要提高创造力，敢于打破常规，善于求新求变，做好助企服务“加法”、数字赋能“减法”、汇聚人才“乘法”、破除制约“除法”，全力打造营商环境品牌升级版。要结合“下基层、办实事、解难题、促发展”攻坚季活动，大兴调查研究之风，打好招商引资、项目建设、助企纾困“组合拳”，进一步创新全要素保障、全流程服务发展理念，全力保障', '考察团成员纷纷表示，通过此次观摩学习，扩宽了思路、更新了观念、明确了方向，坚定了加快发展的信心和决心。在今后的工作中，将认真学习借鉴兄弟市县推进项目建设的宝贵经验和先进做法，牢固树立全产业链招商的思维、全过程服务的理念、全要素保障的态度，以', '“时不我待只争朝夕”的精神，抢抓机遇、应对挑战、破解难题，为市域经济高质量发展作出更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>66</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>黑河市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>黑河市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>黑河市科技工作高质量发展成果丰硕</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-05-31</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.heihe.gov.cn/hhs/c100749/202205/c11_210928.shtml</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['百余场各类学术交流会、研讨会、对策会，50余项科研学术成果，13个各级各类科技馆，30个省、市级科普教育基地……每一个数字都彰显着我市科技工作高质量发展的喜人成果。', '近年来，我市在习近平新时代中国特色社会主义思想指引下，坚持科技工作为市委市政府科学决策服务、为创新驱动发展服务、为提高全民科学素质服务工作主基调，不断为我市经济社会高质量发展提供科技助力。', '市科协围绕全市经济建设、科技创新、大众创业、现代化发展等重点工作组织开展建言献策活动，全市广大科技工作者深入开展调查研究，累计形成《关于黑河自贸片区建设打造东北亚中俄物流战略节点城市的建议》《黑河市打造智慧城市推进治理能力现代化的建议》等10余篇专题报告，其中辟建保税物流园区和发展智慧城市建议被市委市政府采纳并落地实施，充分发挥了科技工作者的智库作用。', '我市通过开展企业创新方法线上推广普及培训、典型经验交流、“双创”系列宣传和咨询、创新创业知识大赛等系列活动激发企业内生动力，助推企业高质量发展。', '搭建对俄交流平台，组织市级学会开展高质量、高水平的学术交流活动，促进科技创新和学科发展。2019年和2021年分别开展中国流动科技馆走进俄罗斯活动及中俄青少年科技创新线上比赛活动，推动了中俄两国间科普资源共享，让俄罗斯民众充分领略我国文化风采及科技水平。', '近五年来，全市各级学会共举办各类学术交流会、研讨会、对策会等100余场，交流论文700余篇，举办各类知识、技能大赛300余次，外出考察学习150余次，有效激发了创新活力。', '我市坚持实施提高重点人群科学素质行动，通过“全国科普日”“全省科普月”“科普之冬”等载体活动，在以未成年人、农民、城镇劳动人口、公职人员和社区居民为主的重点人群间开展丰富多彩、各具特色的科普活动，营造全社会讲科学、爱科学、学科学、用科学的浓厚氛围。', '大力开展科普示范创建活动，孙吴县、北安市被中国科协命名为全国科普示范县（市），爱辉区、孙吴县、北安市被命名为黑龙江省科普示范县（市、区）。持续加强各类科技馆、科普教育基地建设，截至目前，全市共建有市、县级科技馆6个、农村中学科技馆7个，省、市级科普教育基地30个，流动科技馆（科普大篷车）1个，科普基础设施建设取得丰硕成果，为提高全民科学素质奠定了坚实基础。（记者：李丹丹）']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>66</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>黑河市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>黑河市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>逊克县社会治理现代化绘就城市亮丽底色</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2021-09-28</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.heihe.gov.cn/hhs/c100749/202109/c11_208894.shtml</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['逊克县高度重视社会治理现代化工作，积极探索融合“雪亮工程”和“视联网工程”的县乡村“三级综治中心”建设，全面提升基层社会治理体系和治理能力现代化水平，积极打造平安、和谐、宜居的社会环境。', '逊克县明晰规划建设“路线图”，为了高起点、高标准实施建设方案，主要领导先后带队到上海、浙江和江西等先进省市考察学习，制定全县综治中心建设方案。在建设过程中，对各级综治中心的办公场所、人员配置、经费保障等方面的工作上下协调，统筹推进。实行“试点先行、全面推进”原则，首先在两个乡镇、两个行政村、两个社区开展综治中心实体化、规范化建设。同步启动县综治中心建设，配强精干力量，进一步夯实市域社会治理现代化建设的基层基础。“雪亮工程”建设按照“全域覆盖、全网共享、全时可用、全程可控”的目标，总投资1465万元，分三年三期建设完工。截至目前，全县所有乡镇和村屯主要进出口和重点部位实现全覆盖。', '“雪亮工程”指挥平台由城市视联网监控系统、车辆大数据研判系统、全景联动布控系统、人脸识别系统、WIFI探针系统、智能实战图侦平台、智能运维平台、视频图像信息库管理平台8个分平台组成，保证了侦查破案、治安防控、应急处置、边境反恐等实战化要求。同时，县综治中心积极推进联网共享一体化，将“雪亮工程”接入综治视联网，实现综治中心、公安机关平台互通、联网共享，并将全县学校、客运站、医院、景点、加油站、党政机关等重点单位和部位的视频监控接入县综治中心，不断扩大监控覆盖范围和密度，提升了“雪亮工程”实战运用，为建设更高水平的“平安逊克”提供了科技支撑“。视联网工程”建设投资1300万元，目前已全部完成。县级和9个乡镇83个村屯(社区)、10个重点单位全部安装使用，可以满足跨地区、跨部门指挥调度、应急处理、智能分析、服务管理等综治业务应用的可视化、智能化、扁平化的综合信息应用需要。同时，综治视联网系统支持无人机探察视频实时传输，在应急指挥、现场处置、防灾救灾等方面发挥远程查勘作用。', '综治中心、“雪亮工程”“视联网工程”在逊克县城乡全面铺开后，县综治中心受理全县群众求助120余人次、政策法律咨询270余人次、矛盾纠纷上访400余人次，在为民服务方面成效初显，得到省市领导高度认可。“雪亮工程”建设以来，对防案、破案起到很好作用，特别在防范盗窃方面尤为明显，全县刑事案件和治安案件逐年下降。综治视联网的使用，节省时间，提高效率，受到全县各乡镇，特别是较偏远乡镇的欢迎。(作者：于淑鸿)']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>66</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>黑河市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>黑河市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>黑河航站赴黑龙江省应急航空救援幸福站考察学习</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.heihe.gov.cn/hhs/bmdt/202109/c11_216233.shtml</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['为进一步拓宽黑河航站工作发展思路，积极探索站队一体化等多手段的航空消防工作模式，充分发挥一站多能、一机多用机制的功效，快速向标准化、现代化航站迈进。9月1日，在站长赵锦杰的带领下，一行五人赴黑龙江省应急航空救援幸福站开展学习考察交流活动。', '学习考察期间， 幸福站王志强站长及相关科室负责人陪同实地察看并详细介绍航站基础设施建设、组织架构、发展历史、职能专长、党的建设等工作情况；通过观看视频和图片实景参观各航站管制指挥室、调度指挥室、特种车辆使用库、油库、无人机、防火通讯传输设备、机组宿舍等。通过交流学习，解放了思想、拓展了视野，更新了观念，学习到了先进的经验做法，今后将把考察学习中所见、所思、所想真正运用到实际工作当中。大家纷纷表示，通过此次交流学习，既增长了见识、开阔了眼界，解放了思想、更新了观念，受益匪浅，同时也看到了差距、发现了不足，倍感压力。交流会上，大家紧紧围绕快速推进航站建设，进一步做好航空应急救援工作和航站未来发展，展开了深入交流探讨，并结合考察学习体会和自身工作实际，提出了意见建议。', '通过此次学习考察，考察组进一步掌握了行业的发展前沿，同时也看到了自身存在的差距，体会颇深。一是航站要高质量发展，必须积极主动适应应急管理的大形势，融入到应急管理行业中去；二是航站高质量发展，必须积极主动转变发展方式，变单一护林向预警预测、勘察预报、抢险救灾等方面转变；三是航站高质量发展，必须加强后备梯级人才的培养，培养集飞行观察、空中管制、飞行调度等复合型人才；四是航站高质量发展，必须要规范管理，做到行动迅速、科学研判、精准施策。', '学习考察后，大家一致表示要以此次学习为契机，在学习借鉴中创新思路，把学习中所见、所思、所想真正运用到实际工作当中。快速适应“大应急、多灾种”航空应急救援工作的新要求。努力打造一支忠诚、干净、担当，发挥表率作用高素质的航空应急救援队伍，奋力开启黑河航站高质量发展的新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>66</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>黑河市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>黑河市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>嫩江市委书记刘铭到塔溪乡长福镇调研指导基层党建工作</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2021-04-14</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.heihe.gov.cn/hhs/xsdt/202104/c11_209639.shtml</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['4月11日，嫩江市委书记刘铭到塔溪乡、长福镇调研指导基层党建工作。强调，要以基层党支部为核心，把党组织政治优势、组织优势转化为发展优势，引领农村经济社会高质量发展。嫩江市委常委、组织部长张文，包乡处级领导林宇，嫩江市委办、市委组织部有关负责同志参加调研。', '刘铭一行先后来到塔溪乡河北村、塔溪村，长福镇东岗村、爱国村、中合村等地，实地查看基层党建、党支部三会一课记录，听取党建工作开展情况介绍，重点询问了各村党支部书记对今年及今后一段时期的农村发展规划，存在的问题等。期间还深入河北村卫生室，询问农村基本医疗、疫情防控及疫苗接种工作；听取中储粮北方公司驻河北村定点扶贫工作队介绍，对北方公司履行社会责任，实现企地共建，助力脱贫攻坚取得实实在在成效的好做法给予肯定；在塔溪村，刘铭一行还亲切看望了91岁独居老人梁景山。', '调研中，结合当前嫩江市农村基本现状，刘铭指出，巩固拓展脱贫攻坚成果同乡村振兴有效衔接的重点是要解决人才乃至人口的问题。要在生态环境、体制机制、乡村治理、公共服务等全面衔接的基础上，重点做好产业衔接，把帮助农村人口稳定就业、增加收入的产业项目做强做大，促进乡村产业兴旺。', '刘铭强调，要全面加强基层党组织建设。村党支部书记要提高站位、主动作为，依托农村实际，制定形成本村长期发展规划，做到头脑清醒，方向明确。要加强基层党支部书记尤其是新书记集中学习培训，切实提升履职能力；通过抓好党支部活动，树牢“四个意识”，坚定“四个自信”；要优化党员队伍结构，注重年轻党员培养，努力把优秀农村青年培养成村级后备干部的储备力量，以青年蓬勃向上的力量助推基层党建发展。', '要充分发挥基层党组织的关键性引领作用。党支部要在充分考察学习，进发展理念的基础上，立足村情，科学规划，带动和鼓励村民改变固有观念，在特色种植、特色养殖、庭院经济、产业项目、品牌打造上推陈出新，根据市场变化，走规模化、科学化发展路径。通过好的项目，让人口引得进，留得住，过得好。要用好用活村集体经济，坚持长远规划与短期发展相结合，实现群众受益，集体增收“双赢”。（长福中合地边）在对标农垦高标准、高质量抓备春耕生产上要抢前抓早，既学习栽培模式，也要学习和拓展订单种植、点单种植、产品可追溯等数字化农业经营模式，不断提高农产品产量、质量，确保我市农产品具有稳定的市场需求。', '刘铭指出，提高乡村文明程度，要多方面发力。嫩江市的美丽乡村建设，要与驿站文化、抗联文化、旅游文化等相结合，通过文化软实力提升经济硬实力。要持续抓好农村净化、硬化、绿化、美化、亮化，以良好的村容村貌展现出新农村的生活面貌。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>66</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>黑河市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>黑河市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>黑河市司法局组织队伍教育整顿应知应会知识测试</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2021-03-19</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.heihe.gov.cn/hhs/bmdt/202103/c11_214764.shtml</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['为深入推进队伍教育整顿走深走实，检验全体干部理论学习成效。3月19日下午，黑河市司法局组织开展队伍教育整顿应知应会知识测试，结合队伍教育整顿以来每日学习的内容，突出“四项任务”“三个阶段”“六大顽瘴痼疾”等重点内容、重点知识，包括单选题、多选题、简答等题型，试题内容覆盖广且针对性强，全面考察学习成果和知识掌握情况。', '此次测试紧紧围绕习近平总书记关于加强政法队伍建设的重要指示精神、习近平法治思想，结合政法队伍教育整顿工作要求等重要内容，旨在帮助全体干部更好地学习掌握政法队伍教育整顿的重大意义、学习内容、工作要求等，为教育整顿的开展打下坚实的思想基础和理论基础。', '测试结束后，全体干部纷纷表示，此次测试不仅检验了自己的学习成果，促使其认识到了自己的不足之处，同时也深化了对政法队伍教育整顿工作的认识，增强了政治学习的积极性、自觉性和主动性，真正实现了以考促学、以学促用、以用促行的目的。']</t>
         </is>
